--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3970" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +489,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="2">
+      <c r="C14" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +582,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -708,10 +720,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -755,28 +767,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="2">
+      <c r="C22" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -801,28 +813,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +922,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1015,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1112,10 +1124,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1159,28 +1171,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1205,28 +1217,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1314,10 +1326,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1361,28 +1373,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1407,28 +1419,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1516,10 +1528,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1563,28 +1575,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1609,28 +1621,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1747,10 +1759,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1794,28 +1806,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1840,28 +1852,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2007,10 +2019,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2054,28 +2066,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2100,28 +2112,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2267,10 +2279,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2314,28 +2326,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2360,28 +2372,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2469,10 +2481,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2516,28 +2528,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2562,28 +2574,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2671,10 +2683,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2718,28 +2730,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2764,28 +2776,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2873,10 +2885,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2920,28 +2932,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2966,28 +2978,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3075,10 +3087,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3122,28 +3134,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3168,28 +3180,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3277,10 +3289,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3324,28 +3336,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3370,28 +3382,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3479,10 +3491,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3526,28 +3538,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3572,28 +3584,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3710,10 +3722,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3757,28 +3769,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3803,28 +3815,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3999,10 +4011,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4046,28 +4058,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4092,28 +4104,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4230,10 +4242,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4277,28 +4289,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4323,28 +4335,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4432,10 +4444,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4479,28 +4491,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4525,28 +4537,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4663,10 +4675,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4710,28 +4722,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4756,28 +4768,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4865,10 +4877,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4912,28 +4924,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4958,28 +4970,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5067,10 +5079,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5114,28 +5126,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5160,28 +5172,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5269,10 +5281,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5316,28 +5328,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5362,28 +5374,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5471,10 +5483,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5518,28 +5530,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5564,28 +5576,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5731,10 +5743,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5778,28 +5790,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5824,28 +5836,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5904,10 +5916,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5951,28 +5963,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5997,28 +6009,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6106,10 +6118,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6153,28 +6165,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6199,28 +6211,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6308,10 +6320,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6355,28 +6367,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6401,28 +6413,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6568,10 +6580,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6615,28 +6627,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6661,28 +6673,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6857,10 +6869,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6904,28 +6916,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6950,28 +6962,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7117,10 +7129,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7164,28 +7176,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7210,28 +7222,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7377,10 +7389,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7424,28 +7436,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="2">
+      <c r="A253" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="2">
+      <c r="C253" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7470,28 +7482,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="2">
+      <c r="C255" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="2">
+      <c r="D255" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="2">
+      <c r="I255" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7579,10 +7591,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7626,28 +7638,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7672,28 +7684,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7810,10 +7822,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7857,28 +7869,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
+      <c r="A268" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="2">
+      <c r="C268" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7903,28 +7915,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="2">
+      <c r="C270" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="2">
+      <c r="D270" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="2">
+      <c r="I270" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7983,10 +7995,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="2" t="s">
+      <c r="J272" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8030,28 +8042,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="2">
+      <c r="A274" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="2">
+      <c r="C274" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8076,28 +8088,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="2">
+      <c r="C276" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="2">
+      <c r="D276" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="2">
+      <c r="I276" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8156,10 +8168,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="2" t="s">
+      <c r="J278" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8203,28 +8215,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="2">
+      <c r="A280" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="2">
+      <c r="C280" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8249,28 +8261,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="2">
+      <c r="C282" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="2">
+      <c r="D282" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="2">
+      <c r="I282" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8329,10 +8341,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8376,28 +8388,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="2">
+      <c r="A286" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="2">
+      <c r="C286" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8422,28 +8434,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="2">
+      <c r="C288" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="2">
+      <c r="D288" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="2">
+      <c r="I288" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8502,10 +8514,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="2" t="s">
+      <c r="J290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8549,28 +8561,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
+      <c r="A292" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="2">
+      <c r="C292" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8595,28 +8607,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="2">
+      <c r="C294" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="2">
+      <c r="D294" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="2">
+      <c r="I294" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8675,10 +8687,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="2" t="s">
+      <c r="J296" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3970" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9714" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -489,10 +537,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="4" t="s">
+      <c r="J12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -536,28 +584,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="4">
+      <c r="A14" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="4">
+      <c r="B14" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="4">
+      <c r="C14" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="4">
+      <c r="E14" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="4">
+      <c r="F14" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="4">
+      <c r="G14" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="4">
+      <c r="H14" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -582,28 +630,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="4">
+      <c r="B16" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="4">
+      <c r="C16" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="4">
+      <c r="D16" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="4">
+      <c r="E16" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="4">
+      <c r="F16" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="4">
+      <c r="G16" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="4">
+      <c r="H16" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="4">
+      <c r="I16" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -720,10 +768,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="4" t="s">
+      <c r="J20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -767,28 +815,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="4">
+      <c r="A22" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="4">
+      <c r="B22" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="4">
+      <c r="C22" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="4">
+      <c r="E22" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="4">
+      <c r="F22" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="4">
+      <c r="G22" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="4">
+      <c r="H22" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -813,28 +861,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="4">
+      <c r="B24" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="4">
+      <c r="C24" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="4">
+      <c r="D24" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="4">
+      <c r="E24" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="4">
+      <c r="F24" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="4">
+      <c r="G24" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="4">
+      <c r="H24" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="4">
+      <c r="I24" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -922,10 +970,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="4" t="s">
+      <c r="J27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -969,28 +1017,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="4">
+      <c r="A29" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="4">
+      <c r="B29" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="4">
+      <c r="C29" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="4">
+      <c r="E29" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="4">
+      <c r="F29" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="4">
+      <c r="G29" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="4">
+      <c r="H29" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1015,28 +1063,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="4">
+      <c r="B31" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="4">
+      <c r="C31" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="4">
+      <c r="D31" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="4">
+      <c r="E31" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="4">
+      <c r="F31" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="4">
+      <c r="G31" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="4">
+      <c r="H31" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="4">
+      <c r="I31" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1124,10 +1172,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="4" t="s">
+      <c r="J34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1171,28 +1219,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="4">
+      <c r="A36" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="4">
+      <c r="B36" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="4">
+      <c r="C36" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="4">
+      <c r="E36" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="4">
+      <c r="F36" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="4">
+      <c r="G36" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="4">
+      <c r="H36" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1217,28 +1265,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="4">
+      <c r="B38" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="4">
+      <c r="C38" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="4">
+      <c r="D38" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="4">
+      <c r="E38" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="4">
+      <c r="F38" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="4">
+      <c r="G38" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="4">
+      <c r="H38" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="4">
+      <c r="I38" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1326,10 +1374,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="4" t="s">
+      <c r="J41" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1373,28 +1421,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="4">
+      <c r="A43" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="4">
+      <c r="B43" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="4">
+      <c r="C43" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="4">
+      <c r="E43" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="4">
+      <c r="F43" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="4">
+      <c r="G43" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="4">
+      <c r="H43" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1419,28 +1467,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="4">
+      <c r="B45" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="4">
+      <c r="C45" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="4">
+      <c r="D45" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="4">
+      <c r="E45" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="4">
+      <c r="F45" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="4">
+      <c r="G45" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="4">
+      <c r="H45" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="4">
+      <c r="I45" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1528,10 +1576,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="4" t="s">
+      <c r="J48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1575,28 +1623,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="4">
+      <c r="A50" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="4">
+      <c r="B50" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="4">
+      <c r="C50" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="4">
+      <c r="E50" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="4">
+      <c r="F50" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="4">
+      <c r="G50" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="4">
+      <c r="H50" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1621,28 +1669,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="4">
+      <c r="B52" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="4">
+      <c r="C52" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="4">
+      <c r="D52" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="4">
+      <c r="E52" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="4">
+      <c r="F52" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="4">
+      <c r="G52" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="4">
+      <c r="H52" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="4">
+      <c r="I52" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1759,10 +1807,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="4" t="s">
+      <c r="J56" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1806,28 +1854,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="4">
+      <c r="A58" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="4">
+      <c r="B58" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="4">
+      <c r="C58" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="4">
+      <c r="E58" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="4">
+      <c r="F58" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="4">
+      <c r="G58" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="4">
+      <c r="H58" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1852,28 +1900,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="4">
+      <c r="B60" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="4">
+      <c r="C60" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="4">
+      <c r="D60" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="4">
+      <c r="E60" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="4">
+      <c r="F60" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="4">
+      <c r="G60" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="4">
+      <c r="H60" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="4">
+      <c r="I60" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2019,10 +2067,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="4" t="s">
+      <c r="J65" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2066,28 +2114,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="4">
+      <c r="A67" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="4">
+      <c r="B67" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="4">
+      <c r="C67" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="4">
+      <c r="E67" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="4">
+      <c r="F67" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="4">
+      <c r="G67" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="4">
+      <c r="H67" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2112,28 +2160,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="4">
+      <c r="B69" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="4">
+      <c r="C69" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="4">
+      <c r="D69" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="4">
+      <c r="E69" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="4">
+      <c r="F69" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="4">
+      <c r="G69" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="4">
+      <c r="H69" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="4">
+      <c r="I69" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2279,10 +2327,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="4" t="s">
+      <c r="J74" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2326,28 +2374,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="4">
+      <c r="A76" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="4">
+      <c r="B76" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="4">
+      <c r="C76" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="4">
+      <c r="E76" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="4">
+      <c r="F76" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="4">
+      <c r="G76" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="4">
+      <c r="H76" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2372,28 +2420,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="4">
+      <c r="B78" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="4">
+      <c r="C78" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="4">
+      <c r="D78" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="4">
+      <c r="E78" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="4">
+      <c r="F78" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="4">
+      <c r="G78" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="4">
+      <c r="H78" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="4">
+      <c r="I78" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2481,10 +2529,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="4" t="s">
+      <c r="J81" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2528,28 +2576,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="4">
+      <c r="A83" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="4">
+      <c r="B83" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="4">
+      <c r="C83" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="4">
+      <c r="E83" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="4">
+      <c r="F83" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="4">
+      <c r="G83" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="4">
+      <c r="H83" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2574,28 +2622,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="4">
+      <c r="B85" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="4">
+      <c r="C85" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="4">
+      <c r="D85" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="4">
+      <c r="E85" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="4">
+      <c r="F85" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="4">
+      <c r="G85" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="4">
+      <c r="H85" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="4">
+      <c r="I85" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2683,10 +2731,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="4" t="s">
+      <c r="J88" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2730,28 +2778,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="4">
+      <c r="A90" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="4">
+      <c r="B90" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="4">
+      <c r="C90" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="4">
+      <c r="E90" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="4">
+      <c r="F90" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="4">
+      <c r="G90" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="4">
+      <c r="H90" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2776,28 +2824,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="4">
+      <c r="B92" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="4">
+      <c r="C92" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="4">
+      <c r="D92" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="4">
+      <c r="E92" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="4">
+      <c r="F92" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="4">
+      <c r="G92" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="4">
+      <c r="H92" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="4">
+      <c r="I92" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2885,10 +2933,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="4" t="s">
+      <c r="J95" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2932,28 +2980,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="4">
+      <c r="A97" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="4">
+      <c r="B97" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="4">
+      <c r="C97" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="4">
+      <c r="E97" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="4">
+      <c r="F97" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="4">
+      <c r="G97" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="4">
+      <c r="H97" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2978,28 +3026,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="4">
+      <c r="B99" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="4">
+      <c r="C99" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="4">
+      <c r="D99" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="4">
+      <c r="E99" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="4">
+      <c r="F99" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="4">
+      <c r="G99" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="4">
+      <c r="H99" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="4">
+      <c r="I99" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3087,10 +3135,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="4" t="s">
+      <c r="J102" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3134,28 +3182,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="4">
+      <c r="A104" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="4">
+      <c r="B104" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="4">
+      <c r="C104" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="4">
+      <c r="E104" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="4">
+      <c r="F104" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="4">
+      <c r="G104" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="4">
+      <c r="H104" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3180,28 +3228,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="4">
+      <c r="B106" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="4">
+      <c r="C106" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="4">
+      <c r="D106" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="4">
+      <c r="E106" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="4">
+      <c r="F106" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="4">
+      <c r="G106" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="4">
+      <c r="H106" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="4">
+      <c r="I106" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3289,10 +3337,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="4" t="s">
+      <c r="J109" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3336,28 +3384,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="4">
+      <c r="A111" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="4">
+      <c r="B111" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="4">
+      <c r="C111" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="4">
+      <c r="E111" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="4">
+      <c r="F111" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="4">
+      <c r="G111" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="4">
+      <c r="H111" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3382,28 +3430,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="4">
+      <c r="B113" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="4">
+      <c r="C113" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="4">
+      <c r="D113" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="4">
+      <c r="E113" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="4">
+      <c r="F113" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="4">
+      <c r="G113" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="4">
+      <c r="H113" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="4">
+      <c r="I113" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3491,10 +3539,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="4" t="s">
+      <c r="J116" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3538,28 +3586,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="4">
+      <c r="A118" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="4">
+      <c r="B118" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="4">
+      <c r="C118" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="4">
+      <c r="E118" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="4">
+      <c r="F118" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="4">
+      <c r="G118" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="4">
+      <c r="H118" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3584,28 +3632,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="4">
+      <c r="B120" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="4">
+      <c r="C120" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="4">
+      <c r="D120" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="4">
+      <c r="E120" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="4">
+      <c r="F120" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="4">
+      <c r="G120" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="4">
+      <c r="H120" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="4">
+      <c r="I120" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3722,10 +3770,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="4" t="s">
+      <c r="J124" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3769,28 +3817,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="4">
+      <c r="A126" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="4">
+      <c r="B126" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="4">
+      <c r="C126" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="4">
+      <c r="E126" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="4">
+      <c r="F126" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="4">
+      <c r="G126" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="4">
+      <c r="H126" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3815,28 +3863,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="4">
+      <c r="B128" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="4">
+      <c r="C128" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="4">
+      <c r="D128" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="4">
+      <c r="E128" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="4">
+      <c r="F128" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="4">
+      <c r="G128" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="4">
+      <c r="H128" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="4">
+      <c r="I128" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4011,10 +4059,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="4" t="s">
+      <c r="J134" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4058,28 +4106,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="4">
+      <c r="A136" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="4">
+      <c r="B136" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="4">
+      <c r="C136" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="4">
+      <c r="E136" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="4">
+      <c r="F136" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="4">
+      <c r="G136" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="4">
+      <c r="H136" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4104,28 +4152,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="4">
+      <c r="B138" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="4">
+      <c r="C138" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="4">
+      <c r="D138" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="4">
+      <c r="E138" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="4">
+      <c r="F138" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="4">
+      <c r="G138" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="4">
+      <c r="H138" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="4">
+      <c r="I138" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4242,10 +4290,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="4" t="s">
+      <c r="J142" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4289,28 +4337,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="4">
+      <c r="A144" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="4">
+      <c r="B144" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="4">
+      <c r="C144" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="4">
+      <c r="E144" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="4">
+      <c r="F144" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="4">
+      <c r="G144" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="4">
+      <c r="H144" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4335,28 +4383,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="4">
+      <c r="B146" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="4">
+      <c r="C146" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="4">
+      <c r="D146" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="4">
+      <c r="E146" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="4">
+      <c r="F146" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="4">
+      <c r="G146" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="4">
+      <c r="H146" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="4">
+      <c r="I146" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4444,10 +4492,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="4" t="s">
+      <c r="J149" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4491,28 +4539,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="4">
+      <c r="A151" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="4">
+      <c r="B151" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="4">
+      <c r="C151" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="4">
+      <c r="E151" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="4">
+      <c r="F151" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="4">
+      <c r="G151" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="4">
+      <c r="H151" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4537,28 +4585,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="4">
+      <c r="B153" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="4">
+      <c r="C153" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="4">
+      <c r="D153" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="4">
+      <c r="E153" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="4">
+      <c r="F153" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="4">
+      <c r="G153" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="4">
+      <c r="H153" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="4">
+      <c r="I153" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4675,10 +4723,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="4" t="s">
+      <c r="J157" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4722,28 +4770,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="4">
+      <c r="A159" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="4">
+      <c r="B159" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="4">
+      <c r="C159" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="4">
+      <c r="E159" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="4">
+      <c r="F159" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="4">
+      <c r="G159" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="4">
+      <c r="H159" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4768,28 +4816,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="4">
+      <c r="B161" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="4">
+      <c r="C161" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="4">
+      <c r="D161" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="4">
+      <c r="E161" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="4">
+      <c r="F161" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="4">
+      <c r="G161" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="4">
+      <c r="H161" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="4">
+      <c r="I161" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4877,10 +4925,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="4" t="s">
+      <c r="J164" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4924,28 +4972,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="4">
+      <c r="A166" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="4">
+      <c r="B166" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="4">
+      <c r="C166" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="4">
+      <c r="E166" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="4">
+      <c r="F166" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="4">
+      <c r="G166" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="4">
+      <c r="H166" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4970,28 +5018,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="4">
+      <c r="B168" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="4">
+      <c r="C168" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="4">
+      <c r="D168" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="4">
+      <c r="E168" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="4">
+      <c r="F168" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="4">
+      <c r="G168" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="4">
+      <c r="H168" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="4">
+      <c r="I168" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5079,10 +5127,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="4" t="s">
+      <c r="J171" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5126,28 +5174,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="4">
+      <c r="A173" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="4">
+      <c r="B173" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="4">
+      <c r="C173" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="4">
+      <c r="E173" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="4">
+      <c r="F173" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="4">
+      <c r="G173" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="4">
+      <c r="H173" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5172,28 +5220,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="4">
+      <c r="B175" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="4">
+      <c r="C175" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="4">
+      <c r="D175" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="4">
+      <c r="E175" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="4">
+      <c r="F175" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="4">
+      <c r="G175" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="4">
+      <c r="H175" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="4">
+      <c r="I175" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5281,10 +5329,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="4" t="s">
+      <c r="J178" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5328,28 +5376,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="4">
+      <c r="A180" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="4">
+      <c r="B180" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="4">
+      <c r="C180" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="4">
+      <c r="E180" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="4">
+      <c r="F180" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="4">
+      <c r="G180" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="4">
+      <c r="H180" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5374,28 +5422,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="4">
+      <c r="B182" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="4">
+      <c r="C182" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="4">
+      <c r="D182" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="4">
+      <c r="E182" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="4">
+      <c r="F182" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="4">
+      <c r="G182" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="4">
+      <c r="H182" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="4">
+      <c r="I182" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5483,10 +5531,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="4" t="s">
+      <c r="J185" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5530,28 +5578,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="4">
+      <c r="A187" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="4">
+      <c r="B187" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="4">
+      <c r="C187" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="4">
+      <c r="E187" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="4">
+      <c r="F187" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="4">
+      <c r="G187" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="4">
+      <c r="H187" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5576,28 +5624,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="4">
+      <c r="B189" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="4">
+      <c r="C189" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="4">
+      <c r="D189" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="4">
+      <c r="E189" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="4">
+      <c r="F189" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="4">
+      <c r="G189" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="4">
+      <c r="H189" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="4">
+      <c r="I189" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5743,10 +5791,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="4" t="s">
+      <c r="J194" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5790,28 +5838,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="4">
+      <c r="A196" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="4">
+      <c r="B196" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="4">
+      <c r="C196" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="4">
+      <c r="E196" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="4">
+      <c r="F196" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="4">
+      <c r="G196" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="4">
+      <c r="H196" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5836,28 +5884,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="4">
+      <c r="B198" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="4">
+      <c r="C198" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="4">
+      <c r="D198" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="4">
+      <c r="E198" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="4">
+      <c r="F198" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="4">
+      <c r="G198" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="4">
+      <c r="H198" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="4">
+      <c r="I198" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5916,10 +5964,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="4" t="s">
+      <c r="J200" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5963,28 +6011,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="4">
+      <c r="A202" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="4">
+      <c r="B202" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="4">
+      <c r="C202" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="4">
+      <c r="E202" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="4">
+      <c r="F202" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="4">
+      <c r="G202" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="4">
+      <c r="H202" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6009,28 +6057,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="4">
+      <c r="B204" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="4">
+      <c r="C204" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="4">
+      <c r="D204" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="4">
+      <c r="E204" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="4">
+      <c r="F204" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="4">
+      <c r="G204" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="4">
+      <c r="H204" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="4">
+      <c r="I204" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6118,10 +6166,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="4" t="s">
+      <c r="J207" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6165,28 +6213,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="4">
+      <c r="A209" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="4">
+      <c r="B209" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="4">
+      <c r="C209" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="4">
+      <c r="E209" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="4">
+      <c r="F209" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="4">
+      <c r="G209" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="4">
+      <c r="H209" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6211,28 +6259,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="4">
+      <c r="B211" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="4">
+      <c r="C211" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="4">
+      <c r="D211" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="4">
+      <c r="E211" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="4">
+      <c r="F211" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="4">
+      <c r="G211" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="4">
+      <c r="H211" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="4">
+      <c r="I211" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6320,10 +6368,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="4" t="s">
+      <c r="J214" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6367,28 +6415,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="4">
+      <c r="A216" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="4">
+      <c r="B216" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="4">
+      <c r="C216" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="4">
+      <c r="E216" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="4">
+      <c r="F216" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="4">
+      <c r="G216" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="4">
+      <c r="H216" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6413,28 +6461,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="4">
+      <c r="B218" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="4">
+      <c r="C218" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="4">
+      <c r="D218" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="4">
+      <c r="E218" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="4">
+      <c r="F218" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="4">
+      <c r="G218" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="4">
+      <c r="H218" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="4">
+      <c r="I218" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6580,10 +6628,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="4" t="s">
+      <c r="J223" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6627,28 +6675,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="4">
+      <c r="A225" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="4">
+      <c r="B225" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="4">
+      <c r="C225" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="4">
+      <c r="E225" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="4">
+      <c r="F225" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="4">
+      <c r="G225" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="4">
+      <c r="H225" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6673,28 +6721,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="4">
+      <c r="B227" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="4">
+      <c r="C227" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="4">
+      <c r="D227" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="4">
+      <c r="E227" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="4">
+      <c r="F227" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="4">
+      <c r="G227" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="4">
+      <c r="H227" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="4">
+      <c r="I227" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6869,10 +6917,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="4" t="s">
+      <c r="J233" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6916,28 +6964,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="4">
+      <c r="A235" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="4">
+      <c r="B235" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="4">
+      <c r="C235" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="4">
+      <c r="E235" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="4">
+      <c r="F235" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="4">
+      <c r="G235" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="4">
+      <c r="H235" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6962,28 +7010,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="4">
+      <c r="B237" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="4">
+      <c r="C237" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="4">
+      <c r="D237" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="4">
+      <c r="E237" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="4">
+      <c r="F237" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="4">
+      <c r="G237" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="4">
+      <c r="H237" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="4">
+      <c r="I237" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7129,10 +7177,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="4" t="s">
+      <c r="J242" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7176,28 +7224,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="4">
+      <c r="A244" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="4">
+      <c r="B244" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="4">
+      <c r="C244" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="4">
+      <c r="E244" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="4">
+      <c r="F244" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="4">
+      <c r="G244" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="4">
+      <c r="H244" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7222,28 +7270,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="4">
+      <c r="B246" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="4">
+      <c r="C246" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="4">
+      <c r="D246" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="4">
+      <c r="E246" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="4">
+      <c r="F246" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="4">
+      <c r="G246" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="4">
+      <c r="H246" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="4">
+      <c r="I246" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7389,10 +7437,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="4" t="s">
+      <c r="J251" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7436,28 +7484,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="4">
+      <c r="A253" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="4">
+      <c r="B253" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="4">
+      <c r="C253" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="4">
+      <c r="E253" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="4">
+      <c r="F253" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="4">
+      <c r="G253" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="4">
+      <c r="H253" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7482,28 +7530,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="4">
+      <c r="B255" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="4">
+      <c r="C255" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="4">
+      <c r="D255" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="4">
+      <c r="E255" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="4">
+      <c r="F255" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="4">
+      <c r="G255" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="4">
+      <c r="H255" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="4">
+      <c r="I255" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7591,10 +7639,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="4" t="s">
+      <c r="J258" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7638,28 +7686,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="4">
+      <c r="A260" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="4">
+      <c r="B260" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="4">
+      <c r="C260" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="4">
+      <c r="E260" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="4">
+      <c r="F260" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="4">
+      <c r="G260" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="4">
+      <c r="H260" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7684,28 +7732,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="4">
+      <c r="B262" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="4">
+      <c r="C262" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="4">
+      <c r="D262" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="4">
+      <c r="E262" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="4">
+      <c r="F262" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="4">
+      <c r="G262" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="4">
+      <c r="H262" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="4">
+      <c r="I262" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7822,10 +7870,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="4" t="s">
+      <c r="J266" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7869,28 +7917,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="4">
+      <c r="A268" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="4">
+      <c r="B268" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="4">
+      <c r="C268" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="4">
+      <c r="E268" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="4">
+      <c r="F268" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="4">
+      <c r="G268" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="4">
+      <c r="H268" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7915,28 +7963,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="4">
+      <c r="B270" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="4">
+      <c r="C270" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="4">
+      <c r="D270" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="4">
+      <c r="E270" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="4">
+      <c r="F270" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="4">
+      <c r="G270" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="4">
+      <c r="H270" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="4">
+      <c r="I270" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7995,10 +8043,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="4" t="s">
+      <c r="J272" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8042,28 +8090,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="4">
+      <c r="A274" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="4">
+      <c r="B274" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="4">
+      <c r="C274" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="4">
+      <c r="E274" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="4">
+      <c r="F274" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="4">
+      <c r="G274" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="4">
+      <c r="H274" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8088,28 +8136,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="4">
+      <c r="B276" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="4">
+      <c r="C276" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="4">
+      <c r="D276" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="4">
+      <c r="E276" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="4">
+      <c r="F276" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="4">
+      <c r="G276" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="4">
+      <c r="H276" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="4">
+      <c r="I276" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8168,10 +8216,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="4" t="s">
+      <c r="J278" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8215,28 +8263,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="4">
+      <c r="A280" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="4">
+      <c r="B280" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="4">
+      <c r="C280" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="4">
+      <c r="E280" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="4">
+      <c r="F280" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="4">
+      <c r="G280" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="4">
+      <c r="H280" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8261,28 +8309,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="4">
+      <c r="B282" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="4">
+      <c r="C282" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="4">
+      <c r="D282" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="4">
+      <c r="E282" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="4">
+      <c r="F282" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="4">
+      <c r="G282" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="4">
+      <c r="H282" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="4">
+      <c r="I282" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8341,10 +8389,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="4" t="s">
+      <c r="J284" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8388,28 +8436,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="4">
+      <c r="A286" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="4">
+      <c r="B286" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="4">
+      <c r="C286" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="4">
+      <c r="E286" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="4">
+      <c r="F286" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="4">
+      <c r="G286" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="4">
+      <c r="H286" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8434,28 +8482,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="4">
+      <c r="B288" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="4">
+      <c r="C288" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="4">
+      <c r="D288" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="4">
+      <c r="E288" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="4">
+      <c r="F288" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="4">
+      <c r="G288" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="4">
+      <c r="H288" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="4">
+      <c r="I288" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8514,10 +8562,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="4" t="s">
+      <c r="J290" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8561,28 +8609,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="4">
+      <c r="A292" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="4">
+      <c r="B292" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="4">
+      <c r="C292" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="4">
+      <c r="E292" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="4">
+      <c r="F292" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="4">
+      <c r="G292" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="4">
+      <c r="H292" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8607,28 +8655,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="4">
+      <c r="B294" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="4">
+      <c r="C294" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="4">
+      <c r="D294" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="4">
+      <c r="E294" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="4">
+      <c r="F294" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="4">
+      <c r="G294" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="4">
+      <c r="H294" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="4">
+      <c r="I294" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8687,10 +8735,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="4" t="s">
+      <c r="J296" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9714" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11868" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -537,10 +555,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="12" t="s">
+      <c r="J12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -584,28 +602,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="12">
+      <c r="A14" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="12">
+      <c r="B14" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="12">
+      <c r="C14" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="12">
+      <c r="E14" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="12">
+      <c r="F14" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="12">
+      <c r="G14" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="12">
+      <c r="H14" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -630,28 +648,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="12">
+      <c r="B16" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="12">
+      <c r="C16" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="12">
+      <c r="D16" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="12">
+      <c r="E16" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="12">
+      <c r="F16" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="12">
+      <c r="G16" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="12">
+      <c r="H16" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="12">
+      <c r="I16" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -768,10 +786,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="12" t="s">
+      <c r="J20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -815,28 +833,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="12">
+      <c r="A22" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="12">
+      <c r="B22" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="12">
+      <c r="C22" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="12">
+      <c r="E22" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="12">
+      <c r="F22" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="12">
+      <c r="G22" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="12">
+      <c r="H22" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -861,28 +879,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="12">
+      <c r="B24" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="12">
+      <c r="C24" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="12">
+      <c r="D24" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="12">
+      <c r="E24" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="12">
+      <c r="F24" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="12">
+      <c r="G24" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="12">
+      <c r="H24" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="12">
+      <c r="I24" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -970,10 +988,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="12" t="s">
+      <c r="J27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -1017,28 +1035,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="12">
+      <c r="A29" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="12">
+      <c r="B29" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="12">
+      <c r="C29" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="12">
+      <c r="E29" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="12">
+      <c r="F29" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="12">
+      <c r="G29" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="12">
+      <c r="H29" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1063,28 +1081,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="12">
+      <c r="B31" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="12">
+      <c r="C31" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="12">
+      <c r="D31" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="12">
+      <c r="E31" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="12">
+      <c r="F31" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="12">
+      <c r="G31" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="12">
+      <c r="H31" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="12">
+      <c r="I31" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1172,10 +1190,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="12" t="s">
+      <c r="J34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1219,28 +1237,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="12">
+      <c r="A36" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="12">
+      <c r="B36" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="12">
+      <c r="C36" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="12">
+      <c r="E36" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="12">
+      <c r="F36" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="12">
+      <c r="G36" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="12">
+      <c r="H36" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1265,28 +1283,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="12">
+      <c r="B38" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="12">
+      <c r="C38" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="12">
+      <c r="D38" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="12">
+      <c r="E38" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="12">
+      <c r="F38" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="12">
+      <c r="G38" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="12">
+      <c r="H38" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="12">
+      <c r="I38" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1374,10 +1392,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="12" t="s">
+      <c r="J41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1421,28 +1439,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="12">
+      <c r="A43" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="12">
+      <c r="B43" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="12">
+      <c r="C43" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="12">
+      <c r="E43" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="12">
+      <c r="F43" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="12">
+      <c r="G43" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="12">
+      <c r="H43" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1467,28 +1485,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="12">
+      <c r="B45" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="12">
+      <c r="C45" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="12">
+      <c r="D45" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="12">
+      <c r="E45" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="12">
+      <c r="F45" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="12">
+      <c r="G45" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="12">
+      <c r="H45" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="12">
+      <c r="I45" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1576,10 +1594,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="12" t="s">
+      <c r="J48" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1623,28 +1641,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="12">
+      <c r="A50" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="12">
+      <c r="B50" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="12">
+      <c r="C50" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="12">
+      <c r="E50" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="12">
+      <c r="F50" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="12">
+      <c r="G50" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="12">
+      <c r="H50" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1669,28 +1687,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="12">
+      <c r="B52" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="12">
+      <c r="C52" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="12">
+      <c r="D52" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="12">
+      <c r="E52" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="12">
+      <c r="F52" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="12">
+      <c r="G52" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="12">
+      <c r="H52" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="12">
+      <c r="I52" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1807,10 +1825,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="12" t="s">
+      <c r="J56" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1854,28 +1872,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="12">
+      <c r="A58" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="12">
+      <c r="B58" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="12">
+      <c r="C58" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="12">
+      <c r="E58" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="12">
+      <c r="F58" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="12">
+      <c r="G58" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="12">
+      <c r="H58" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1900,28 +1918,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="12">
+      <c r="B60" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="12">
+      <c r="C60" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="12">
+      <c r="D60" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="12">
+      <c r="E60" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="12">
+      <c r="F60" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="12">
+      <c r="G60" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="12">
+      <c r="H60" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="12">
+      <c r="I60" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2067,10 +2085,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="12" t="s">
+      <c r="J65" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2114,28 +2132,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="12">
+      <c r="A67" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="12">
+      <c r="B67" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="12">
+      <c r="C67" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="12">
+      <c r="E67" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="12">
+      <c r="F67" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="12">
+      <c r="G67" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="12">
+      <c r="H67" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2160,28 +2178,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="12">
+      <c r="B69" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="12">
+      <c r="C69" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="12">
+      <c r="D69" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="12">
+      <c r="E69" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="12">
+      <c r="F69" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="12">
+      <c r="G69" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="12">
+      <c r="H69" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="12">
+      <c r="I69" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2327,10 +2345,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="12" t="s">
+      <c r="J74" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2374,28 +2392,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="12">
+      <c r="A76" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="12">
+      <c r="B76" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="12">
+      <c r="C76" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="12">
+      <c r="E76" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="12">
+      <c r="F76" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="12">
+      <c r="G76" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="12">
+      <c r="H76" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2420,28 +2438,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="12">
+      <c r="B78" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="12">
+      <c r="C78" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="12">
+      <c r="D78" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="12">
+      <c r="E78" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="12">
+      <c r="F78" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="12">
+      <c r="G78" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="12">
+      <c r="H78" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="12">
+      <c r="I78" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2529,10 +2547,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="12" t="s">
+      <c r="J81" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2576,28 +2594,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="12">
+      <c r="A83" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="12">
+      <c r="B83" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="12">
+      <c r="C83" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="12">
+      <c r="E83" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="12">
+      <c r="F83" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="12">
+      <c r="G83" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="12">
+      <c r="H83" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2622,28 +2640,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="12">
+      <c r="B85" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="12">
+      <c r="C85" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="12">
+      <c r="D85" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="12">
+      <c r="E85" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="12">
+      <c r="F85" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="12">
+      <c r="G85" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="12">
+      <c r="H85" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="12">
+      <c r="I85" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2731,10 +2749,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="12" t="s">
+      <c r="J88" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2778,28 +2796,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="12">
+      <c r="A90" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="12">
+      <c r="B90" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="12">
+      <c r="C90" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="12">
+      <c r="E90" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="12">
+      <c r="F90" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="12">
+      <c r="G90" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="12">
+      <c r="H90" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2824,28 +2842,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="12">
+      <c r="B92" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="12">
+      <c r="C92" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="12">
+      <c r="D92" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="12">
+      <c r="E92" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="12">
+      <c r="F92" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="12">
+      <c r="G92" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="12">
+      <c r="H92" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="12">
+      <c r="I92" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2933,10 +2951,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="12" t="s">
+      <c r="J95" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2980,28 +2998,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="12">
+      <c r="A97" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="12">
+      <c r="B97" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="12">
+      <c r="C97" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="12">
+      <c r="E97" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="12">
+      <c r="F97" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="12">
+      <c r="G97" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="12">
+      <c r="H97" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3026,28 +3044,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="12">
+      <c r="B99" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="12">
+      <c r="C99" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="12">
+      <c r="D99" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="12">
+      <c r="E99" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="12">
+      <c r="F99" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="12">
+      <c r="G99" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="12">
+      <c r="H99" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="12">
+      <c r="I99" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3135,10 +3153,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="12" t="s">
+      <c r="J102" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3182,28 +3200,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="12">
+      <c r="A104" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="12">
+      <c r="B104" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="12">
+      <c r="C104" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="12">
+      <c r="E104" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="12">
+      <c r="F104" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="12">
+      <c r="G104" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="12">
+      <c r="H104" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3228,28 +3246,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="12">
+      <c r="B106" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="12">
+      <c r="C106" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="12">
+      <c r="D106" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="12">
+      <c r="E106" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="12">
+      <c r="F106" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="12">
+      <c r="G106" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="12">
+      <c r="H106" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="12">
+      <c r="I106" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3337,10 +3355,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="12" t="s">
+      <c r="J109" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3384,28 +3402,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="12">
+      <c r="A111" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="12">
+      <c r="B111" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="12">
+      <c r="C111" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="12">
+      <c r="E111" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="12">
+      <c r="F111" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="12">
+      <c r="G111" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="12">
+      <c r="H111" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3430,28 +3448,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="12">
+      <c r="B113" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="12">
+      <c r="C113" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="12">
+      <c r="D113" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="12">
+      <c r="E113" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="12">
+      <c r="F113" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="12">
+      <c r="G113" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="12">
+      <c r="H113" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="12">
+      <c r="I113" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3539,10 +3557,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="12" t="s">
+      <c r="J116" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3586,28 +3604,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="12">
+      <c r="A118" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="12">
+      <c r="B118" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="12">
+      <c r="C118" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="12">
+      <c r="E118" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="12">
+      <c r="F118" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="12">
+      <c r="G118" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="12">
+      <c r="H118" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3632,28 +3650,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="12">
+      <c r="B120" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="12">
+      <c r="C120" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="12">
+      <c r="D120" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="12">
+      <c r="E120" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="12">
+      <c r="F120" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="12">
+      <c r="G120" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="12">
+      <c r="H120" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="12">
+      <c r="I120" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3770,10 +3788,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="12" t="s">
+      <c r="J124" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3817,28 +3835,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="12">
+      <c r="A126" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="12">
+      <c r="B126" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="12">
+      <c r="C126" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="12">
+      <c r="E126" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="12">
+      <c r="F126" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="12">
+      <c r="G126" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="12">
+      <c r="H126" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3863,28 +3881,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="12">
+      <c r="B128" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="12">
+      <c r="C128" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="12">
+      <c r="D128" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="12">
+      <c r="E128" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="12">
+      <c r="F128" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="12">
+      <c r="G128" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="12">
+      <c r="H128" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="12">
+      <c r="I128" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4059,10 +4077,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="12" t="s">
+      <c r="J134" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4106,28 +4124,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="12">
+      <c r="A136" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="12">
+      <c r="B136" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="12">
+      <c r="C136" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="12">
+      <c r="E136" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="12">
+      <c r="F136" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="12">
+      <c r="G136" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="12">
+      <c r="H136" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4152,28 +4170,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="12">
+      <c r="B138" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="12">
+      <c r="C138" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="12">
+      <c r="D138" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="12">
+      <c r="E138" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="12">
+      <c r="F138" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="12">
+      <c r="G138" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="12">
+      <c r="H138" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="12">
+      <c r="I138" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4290,10 +4308,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="12" t="s">
+      <c r="J142" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4337,28 +4355,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="12">
+      <c r="A144" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="12">
+      <c r="B144" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="12">
+      <c r="C144" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="12">
+      <c r="E144" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="12">
+      <c r="F144" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="12">
+      <c r="G144" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="12">
+      <c r="H144" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4383,28 +4401,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="12">
+      <c r="C146" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="12">
+      <c r="D146" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="12">
+      <c r="E146" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="12">
+      <c r="F146" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="12">
+      <c r="G146" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="12">
+      <c r="H146" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="12">
+      <c r="I146" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4492,10 +4510,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="12" t="s">
+      <c r="J149" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4539,28 +4557,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="12">
+      <c r="A151" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="12">
+      <c r="B151" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="12">
+      <c r="C151" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="12">
+      <c r="E151" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="12">
+      <c r="F151" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="12">
+      <c r="G151" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="12">
+      <c r="H151" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4585,28 +4603,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="12">
+      <c r="B153" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="12">
+      <c r="C153" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="12">
+      <c r="D153" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="12">
+      <c r="E153" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="12">
+      <c r="F153" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="12">
+      <c r="G153" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="12">
+      <c r="H153" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="12">
+      <c r="I153" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4723,10 +4741,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="12" t="s">
+      <c r="J157" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4770,28 +4788,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="12">
+      <c r="A159" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="12">
+      <c r="B159" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="12">
+      <c r="C159" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="12">
+      <c r="E159" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="12">
+      <c r="F159" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="12">
+      <c r="G159" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="12">
+      <c r="H159" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4816,28 +4834,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="12">
+      <c r="B161" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="12">
+      <c r="C161" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="12">
+      <c r="D161" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="12">
+      <c r="E161" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="12">
+      <c r="F161" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="12">
+      <c r="G161" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="12">
+      <c r="H161" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="12">
+      <c r="I161" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4925,10 +4943,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="12" t="s">
+      <c r="J164" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4972,28 +4990,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="12">
+      <c r="A166" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="12">
+      <c r="B166" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="12">
+      <c r="C166" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="12">
+      <c r="E166" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="12">
+      <c r="F166" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="12">
+      <c r="G166" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="12">
+      <c r="H166" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5018,28 +5036,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="12">
+      <c r="B168" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="12">
+      <c r="C168" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="12">
+      <c r="D168" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="12">
+      <c r="E168" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="12">
+      <c r="F168" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="12">
+      <c r="G168" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="12">
+      <c r="H168" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="12">
+      <c r="I168" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5127,10 +5145,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="12" t="s">
+      <c r="J171" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5174,28 +5192,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="12">
+      <c r="A173" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="12">
+      <c r="B173" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="12">
+      <c r="C173" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="12">
+      <c r="E173" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="12">
+      <c r="F173" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="12">
+      <c r="G173" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="12">
+      <c r="H173" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5220,28 +5238,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="12">
+      <c r="B175" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="12">
+      <c r="C175" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="12">
+      <c r="D175" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="12">
+      <c r="E175" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="12">
+      <c r="F175" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="12">
+      <c r="G175" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="12">
+      <c r="H175" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="12">
+      <c r="I175" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5329,10 +5347,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="12" t="s">
+      <c r="J178" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5376,28 +5394,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="12">
+      <c r="A180" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="12">
+      <c r="B180" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="12">
+      <c r="C180" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="12">
+      <c r="E180" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="12">
+      <c r="F180" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="12">
+      <c r="G180" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="12">
+      <c r="H180" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5422,28 +5440,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="12">
+      <c r="B182" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="12">
+      <c r="C182" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="12">
+      <c r="D182" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="12">
+      <c r="E182" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="12">
+      <c r="F182" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="12">
+      <c r="G182" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="12">
+      <c r="H182" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="12">
+      <c r="I182" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5531,10 +5549,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="12" t="s">
+      <c r="J185" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5578,28 +5596,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="12">
+      <c r="A187" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="12">
+      <c r="B187" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="12">
+      <c r="C187" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="12">
+      <c r="E187" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="12">
+      <c r="F187" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="12">
+      <c r="G187" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="12">
+      <c r="H187" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5624,28 +5642,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="12">
+      <c r="B189" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="12">
+      <c r="C189" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="12">
+      <c r="D189" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="12">
+      <c r="E189" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="12">
+      <c r="F189" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="12">
+      <c r="G189" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="12">
+      <c r="H189" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="12">
+      <c r="I189" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5791,10 +5809,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="12" t="s">
+      <c r="J194" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5838,28 +5856,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="12">
+      <c r="A196" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="12">
+      <c r="B196" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="12">
+      <c r="C196" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="12">
+      <c r="E196" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="12">
+      <c r="F196" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="12">
+      <c r="G196" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="12">
+      <c r="H196" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5884,28 +5902,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="12">
+      <c r="B198" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="12">
+      <c r="C198" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="12">
+      <c r="D198" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="12">
+      <c r="E198" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="12">
+      <c r="F198" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="12">
+      <c r="G198" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="12">
+      <c r="H198" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="12">
+      <c r="I198" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5964,10 +5982,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="12" t="s">
+      <c r="J200" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -6011,28 +6029,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="12">
+      <c r="A202" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="12">
+      <c r="B202" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="12">
+      <c r="C202" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="12">
+      <c r="E202" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="12">
+      <c r="F202" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="12">
+      <c r="G202" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="12">
+      <c r="H202" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6057,28 +6075,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="12">
+      <c r="B204" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="12">
+      <c r="C204" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="12">
+      <c r="D204" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="12">
+      <c r="E204" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="12">
+      <c r="F204" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="12">
+      <c r="G204" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="12">
+      <c r="H204" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="12">
+      <c r="I204" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6166,10 +6184,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="12" t="s">
+      <c r="J207" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6213,28 +6231,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="12">
+      <c r="A209" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="12">
+      <c r="B209" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="12">
+      <c r="C209" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="12">
+      <c r="E209" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="12">
+      <c r="F209" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="12">
+      <c r="G209" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="12">
+      <c r="H209" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6259,28 +6277,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="12">
+      <c r="B211" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="12">
+      <c r="C211" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="12">
+      <c r="D211" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="12">
+      <c r="E211" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="12">
+      <c r="F211" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="12">
+      <c r="G211" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="12">
+      <c r="H211" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="12">
+      <c r="I211" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6368,10 +6386,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="12" t="s">
+      <c r="J214" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6415,28 +6433,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="12">
+      <c r="A216" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="12">
+      <c r="B216" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="12">
+      <c r="C216" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="12">
+      <c r="E216" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="12">
+      <c r="F216" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="12">
+      <c r="G216" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="12">
+      <c r="H216" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6461,28 +6479,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="12">
+      <c r="B218" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="12">
+      <c r="C218" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="12">
+      <c r="D218" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="12">
+      <c r="E218" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="12">
+      <c r="F218" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="12">
+      <c r="G218" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="12">
+      <c r="H218" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="12">
+      <c r="I218" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6628,10 +6646,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="12" t="s">
+      <c r="J223" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6675,28 +6693,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="12">
+      <c r="A225" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="12">
+      <c r="B225" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="12">
+      <c r="C225" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="12">
+      <c r="E225" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="12">
+      <c r="F225" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="12">
+      <c r="G225" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="12">
+      <c r="H225" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6721,28 +6739,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="12">
+      <c r="B227" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="12">
+      <c r="C227" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="12">
+      <c r="D227" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="12">
+      <c r="E227" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="12">
+      <c r="F227" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="12">
+      <c r="G227" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="12">
+      <c r="H227" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="12">
+      <c r="I227" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6917,10 +6935,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="12" t="s">
+      <c r="J233" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6964,28 +6982,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="12">
+      <c r="A235" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="12">
+      <c r="B235" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="12">
+      <c r="C235" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="12">
+      <c r="E235" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="12">
+      <c r="F235" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="12">
+      <c r="G235" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="12">
+      <c r="H235" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7010,28 +7028,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="12">
+      <c r="B237" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="12">
+      <c r="C237" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="12">
+      <c r="D237" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="12">
+      <c r="E237" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="12">
+      <c r="F237" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="12">
+      <c r="G237" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="12">
+      <c r="H237" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="12">
+      <c r="I237" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7177,10 +7195,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="12" t="s">
+      <c r="J242" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7224,28 +7242,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="12">
+      <c r="A244" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="12">
+      <c r="B244" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="12">
+      <c r="C244" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="12">
+      <c r="E244" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="12">
+      <c r="F244" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="12">
+      <c r="G244" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="12">
+      <c r="H244" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7270,28 +7288,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="12">
+      <c r="B246" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="12">
+      <c r="C246" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="12">
+      <c r="D246" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="12">
+      <c r="E246" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="12">
+      <c r="F246" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="12">
+      <c r="G246" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="12">
+      <c r="H246" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="12">
+      <c r="I246" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7437,10 +7455,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="12" t="s">
+      <c r="J251" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7484,28 +7502,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="12">
+      <c r="A253" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="12">
+      <c r="B253" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="12">
+      <c r="C253" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="12">
+      <c r="E253" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="12">
+      <c r="F253" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="12">
+      <c r="G253" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="12">
+      <c r="H253" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7530,28 +7548,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="12">
+      <c r="B255" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="12">
+      <c r="C255" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="12">
+      <c r="D255" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="12">
+      <c r="E255" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="12">
+      <c r="F255" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="12">
+      <c r="G255" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="12">
+      <c r="H255" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="12">
+      <c r="I255" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7639,10 +7657,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="12" t="s">
+      <c r="J258" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7686,28 +7704,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="12">
+      <c r="A260" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="12">
+      <c r="B260" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="12">
+      <c r="C260" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="12">
+      <c r="E260" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="12">
+      <c r="F260" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="12">
+      <c r="G260" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="12">
+      <c r="H260" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7732,28 +7750,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="12">
+      <c r="B262" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="12">
+      <c r="C262" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="12">
+      <c r="D262" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="12">
+      <c r="E262" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="12">
+      <c r="F262" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="12">
+      <c r="G262" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="12">
+      <c r="H262" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="12">
+      <c r="I262" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7870,10 +7888,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="12" t="s">
+      <c r="J266" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7917,28 +7935,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="12">
+      <c r="A268" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="12">
+      <c r="B268" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="12">
+      <c r="C268" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="12">
+      <c r="E268" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="12">
+      <c r="F268" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="12">
+      <c r="G268" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="12">
+      <c r="H268" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7963,28 +7981,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="12">
+      <c r="B270" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="12">
+      <c r="C270" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="12">
+      <c r="D270" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="12">
+      <c r="E270" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="12">
+      <c r="F270" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="12">
+      <c r="G270" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="12">
+      <c r="H270" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="12">
+      <c r="I270" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8043,10 +8061,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="12" t="s">
+      <c r="J272" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8090,28 +8108,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="12">
+      <c r="A274" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="12">
+      <c r="B274" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="12">
+      <c r="C274" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="12">
+      <c r="E274" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="12">
+      <c r="F274" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="12">
+      <c r="G274" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="12">
+      <c r="H274" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8136,28 +8154,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="12">
+      <c r="B276" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="12">
+      <c r="C276" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="12">
+      <c r="D276" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="12">
+      <c r="E276" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="12">
+      <c r="F276" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="12">
+      <c r="G276" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="12">
+      <c r="H276" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="12">
+      <c r="I276" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8216,10 +8234,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="12" t="s">
+      <c r="J278" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8263,28 +8281,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="12">
+      <c r="A280" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="12">
+      <c r="B280" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="12">
+      <c r="C280" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="12">
+      <c r="E280" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="12">
+      <c r="F280" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="12">
+      <c r="G280" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="12">
+      <c r="H280" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8309,28 +8327,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="12">
+      <c r="B282" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="12">
+      <c r="C282" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="12">
+      <c r="D282" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="12">
+      <c r="E282" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="12">
+      <c r="F282" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="12">
+      <c r="G282" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="12">
+      <c r="H282" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="12">
+      <c r="I282" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8389,10 +8407,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="12" t="s">
+      <c r="J284" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8436,28 +8454,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="12">
+      <c r="A286" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="12">
+      <c r="B286" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="12">
+      <c r="C286" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="12">
+      <c r="E286" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="12">
+      <c r="F286" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="12">
+      <c r="G286" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="12">
+      <c r="H286" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8482,28 +8500,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="12">
+      <c r="B288" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="12">
+      <c r="C288" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="12">
+      <c r="D288" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="12">
+      <c r="E288" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="12">
+      <c r="F288" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="12">
+      <c r="G288" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="12">
+      <c r="H288" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="12">
+      <c r="I288" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8562,10 +8580,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="12" t="s">
+      <c r="J290" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8609,28 +8627,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="12">
+      <c r="A292" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="12">
+      <c r="B292" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="12">
+      <c r="C292" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="12">
+      <c r="E292" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="12">
+      <c r="F292" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="12">
+      <c r="G292" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="12">
+      <c r="H292" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8655,28 +8673,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="12">
+      <c r="B294" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="12">
+      <c r="C294" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="12">
+      <c r="D294" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="12">
+      <c r="E294" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="12">
+      <c r="F294" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="12">
+      <c r="G294" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="12">
+      <c r="H294" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="12">
+      <c r="I294" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8735,10 +8753,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="12" t="s">
+      <c r="J296" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
